--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ACD/20/seed3/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ACD/20/seed3/result_data_KNN.xlsx
@@ -488,7 +488,7 @@
         <v>-12.16</v>
       </c>
       <c r="D3" t="n">
-        <v>-7.544</v>
+        <v>-7.702</v>
       </c>
       <c r="E3" t="n">
         <v>17.78</v>
@@ -505,7 +505,7 @@
         <v>-13.95</v>
       </c>
       <c r="D4" t="n">
-        <v>-7.838000000000001</v>
+        <v>-7.892</v>
       </c>
       <c r="E4" t="n">
         <v>17.51</v>
@@ -553,7 +553,7 @@
         <v>9.43</v>
       </c>
       <c r="C7" t="n">
-        <v>-13.332</v>
+        <v>-12.983</v>
       </c>
       <c r="D7" t="n">
         <v>-9.359999999999999</v>
@@ -564,7 +564,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-22.434</v>
+        <v>-22.273</v>
       </c>
       <c r="B8" t="n">
         <v>2.91</v>
@@ -598,7 +598,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-21.454</v>
+        <v>-21.82</v>
       </c>
       <c r="B10" t="n">
         <v>6.17</v>
@@ -624,7 +624,7 @@
         <v>-10.8</v>
       </c>
       <c r="D11" t="n">
-        <v>-7.368</v>
+        <v>-7.2</v>
       </c>
       <c r="E11" t="n">
         <v>17.04</v>
@@ -632,7 +632,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-21.73</v>
+        <v>-21.594</v>
       </c>
       <c r="B12" t="n">
         <v>4.54</v>
@@ -672,10 +672,10 @@
         <v>4.04</v>
       </c>
       <c r="C14" t="n">
-        <v>-12.142</v>
+        <v>-12.996</v>
       </c>
       <c r="D14" t="n">
-        <v>-7.787999999999999</v>
+        <v>-7.986</v>
       </c>
       <c r="E14" t="n">
         <v>17.29</v>
@@ -689,7 +689,7 @@
         <v>5.32</v>
       </c>
       <c r="C15" t="n">
-        <v>-13.588</v>
+        <v>-13.745</v>
       </c>
       <c r="D15" t="n">
         <v>-10.04</v>
@@ -734,16 +734,16 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-21.698</v>
+        <v>-21.841</v>
       </c>
       <c r="B18" t="n">
         <v>4.35</v>
       </c>
       <c r="C18" t="n">
-        <v>-11.476</v>
+        <v>-12.098</v>
       </c>
       <c r="D18" t="n">
-        <v>-7.494</v>
+        <v>-7.867999999999999</v>
       </c>
       <c r="E18" t="n">
         <v>17.03</v>
@@ -760,7 +760,7 @@
         <v>-12.15</v>
       </c>
       <c r="D19" t="n">
-        <v>-8.456</v>
+        <v>-8.254999999999999</v>
       </c>
       <c r="E19" t="n">
         <v>16.87</v>
@@ -774,7 +774,7 @@
         <v>10.19</v>
       </c>
       <c r="C20" t="n">
-        <v>-12.866</v>
+        <v>-12.684</v>
       </c>
       <c r="D20" t="n">
         <v>-10.64</v>
@@ -794,7 +794,7 @@
         <v>-13.13</v>
       </c>
       <c r="D21" t="n">
-        <v>-8.48</v>
+        <v>-8.353999999999999</v>
       </c>
       <c r="E21" t="n">
         <v>16.94</v>
@@ -853,7 +853,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>-21.998</v>
+        <v>-21.862</v>
       </c>
       <c r="B25" t="n">
         <v>5.23</v>
@@ -896,7 +896,7 @@
         <v>-11.92</v>
       </c>
       <c r="D27" t="n">
-        <v>-8.267999999999999</v>
+        <v>-8.568999999999999</v>
       </c>
       <c r="E27" t="n">
         <v>15.34</v>
@@ -927,7 +927,7 @@
         <v>7.52</v>
       </c>
       <c r="C29" t="n">
-        <v>-12.334</v>
+        <v>-12.181</v>
       </c>
       <c r="D29" t="n">
         <v>-7.09</v>
@@ -944,7 +944,7 @@
         <v>5.27</v>
       </c>
       <c r="C30" t="n">
-        <v>-13.31</v>
+        <v>-12.421</v>
       </c>
       <c r="D30" t="n">
         <v>-10.18</v>
@@ -961,10 +961,10 @@
         <v>4.47</v>
       </c>
       <c r="C31" t="n">
-        <v>-13.822</v>
+        <v>-13.363</v>
       </c>
       <c r="D31" t="n">
-        <v>-8.108000000000001</v>
+        <v>-8.425999999999998</v>
       </c>
       <c r="E31" t="n">
         <v>15.44</v>
@@ -1029,7 +1029,7 @@
         <v>10.18</v>
       </c>
       <c r="C35" t="n">
-        <v>-12.454</v>
+        <v>-12.518</v>
       </c>
       <c r="D35" t="n">
         <v>-9.9</v>
@@ -1057,7 +1057,7 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>-20.12</v>
+        <v>-20.044</v>
       </c>
       <c r="B37" t="n">
         <v>9.41</v>
@@ -1083,7 +1083,7 @@
         <v>-12.46</v>
       </c>
       <c r="D38" t="n">
-        <v>-7.593999999999999</v>
+        <v>-7.813</v>
       </c>
       <c r="E38" t="n">
         <v>15.23</v>
@@ -1114,7 +1114,7 @@
         <v>10.75</v>
       </c>
       <c r="C40" t="n">
-        <v>-12.988</v>
+        <v>-12.782</v>
       </c>
       <c r="D40" t="n">
         <v>-7.23</v>
@@ -1151,7 +1151,7 @@
         <v>-13.45</v>
       </c>
       <c r="D42" t="n">
-        <v>-8.332000000000001</v>
+        <v>-8.303999999999998</v>
       </c>
       <c r="E42" t="n">
         <v>16.31</v>
@@ -1182,10 +1182,10 @@
         <v>10.98</v>
       </c>
       <c r="C44" t="n">
-        <v>-12.82</v>
+        <v>-12.663</v>
       </c>
       <c r="D44" t="n">
-        <v>-7.6</v>
+        <v>-7.564</v>
       </c>
       <c r="E44" t="n">
         <v>16.52</v>
@@ -1236,7 +1236,7 @@
         <v>-11.84</v>
       </c>
       <c r="D47" t="n">
-        <v>-7.342000000000001</v>
+        <v>-7.395</v>
       </c>
       <c r="E47" t="n">
         <v>17.05</v>
@@ -1284,7 +1284,7 @@
         <v>4.91</v>
       </c>
       <c r="C50" t="n">
-        <v>-13.202</v>
+        <v>-13.542</v>
       </c>
       <c r="D50" t="n">
         <v>-8.029999999999999</v>
@@ -1352,7 +1352,7 @@
         <v>6.01</v>
       </c>
       <c r="C54" t="n">
-        <v>-12.04</v>
+        <v>-12.524</v>
       </c>
       <c r="D54" t="n">
         <v>-8.01</v>
@@ -1363,7 +1363,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>-21.988</v>
+        <v>-21.894</v>
       </c>
       <c r="B55" t="n">
         <v>5.38</v>
@@ -1389,7 +1389,7 @@
         <v>-13.63</v>
       </c>
       <c r="D56" t="n">
-        <v>-8.146000000000001</v>
+        <v>-8.164</v>
       </c>
       <c r="E56" t="n">
         <v>16.79</v>
@@ -1423,7 +1423,7 @@
         <v>-15.6</v>
       </c>
       <c r="D58" t="n">
-        <v>-8.246</v>
+        <v>-8.401</v>
       </c>
       <c r="E58" t="n">
         <v>16.91</v>
@@ -1542,7 +1542,7 @@
         <v>-11.86</v>
       </c>
       <c r="D65" t="n">
-        <v>-7.776000000000001</v>
+        <v>-7.437</v>
       </c>
       <c r="E65" t="n">
         <v>17.18</v>
@@ -1584,7 +1584,7 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>-21.612</v>
+        <v>-21.593</v>
       </c>
       <c r="B68" t="n">
         <v>4.88</v>
@@ -1678,7 +1678,7 @@
         <v>-15.02</v>
       </c>
       <c r="D73" t="n">
-        <v>-8.087999999999999</v>
+        <v>-8.193000000000001</v>
       </c>
       <c r="E73" t="n">
         <v>16.21</v>
@@ -1726,7 +1726,7 @@
         <v>9.23</v>
       </c>
       <c r="C76" t="n">
-        <v>-13.354</v>
+        <v>-13.314</v>
       </c>
       <c r="D76" t="n">
         <v>-7.88</v>
@@ -1737,7 +1737,7 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>-20.972</v>
+        <v>-20.42</v>
       </c>
       <c r="B77" t="n">
         <v>10.09</v>
@@ -1754,7 +1754,7 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>-19.572</v>
+        <v>-20.099</v>
       </c>
       <c r="B78" t="n">
         <v>9.640000000000001</v>
@@ -1771,7 +1771,7 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>-21.686</v>
+        <v>-21.771</v>
       </c>
       <c r="B79" t="n">
         <v>8.949999999999999</v>
@@ -1788,7 +1788,7 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>-19.884</v>
+        <v>-20.228</v>
       </c>
       <c r="B80" t="n">
         <v>11.21</v>
@@ -1805,7 +1805,7 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>-21.778</v>
+        <v>-21.759</v>
       </c>
       <c r="B81" t="n">
         <v>3.85</v>
@@ -1822,7 +1822,7 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>-21.958</v>
+        <v>-22.124</v>
       </c>
       <c r="B82" t="n">
         <v>5.26</v>
@@ -1856,7 +1856,7 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>-21.936</v>
+        <v>-22.177</v>
       </c>
       <c r="B84" t="n">
         <v>4.99</v>
@@ -1913,7 +1913,7 @@
         <v>5.81</v>
       </c>
       <c r="C87" t="n">
-        <v>-12.976</v>
+        <v>-13.215</v>
       </c>
       <c r="D87" t="n">
         <v>-8.869999999999999</v>
@@ -1930,7 +1930,7 @@
         <v>5.51</v>
       </c>
       <c r="C88" t="n">
-        <v>-13.082</v>
+        <v>-13.085</v>
       </c>
       <c r="D88" t="n">
         <v>-8.140000000000001</v>
@@ -1967,7 +1967,7 @@
         <v>-12.06</v>
       </c>
       <c r="D90" t="n">
-        <v>-7.062</v>
+        <v>-7.452</v>
       </c>
       <c r="E90" t="n">
         <v>16.68</v>
@@ -1998,10 +1998,10 @@
         <v>6.16</v>
       </c>
       <c r="C92" t="n">
-        <v>-11.03</v>
+        <v>-11.474</v>
       </c>
       <c r="D92" t="n">
-        <v>-6.51</v>
+        <v>-6.709000000000001</v>
       </c>
       <c r="E92" t="n">
         <v>19.64</v>
@@ -2035,7 +2035,7 @@
         <v>-10.65</v>
       </c>
       <c r="D94" t="n">
-        <v>-7.397999999999999</v>
+        <v>-7.129</v>
       </c>
       <c r="E94" t="n">
         <v>17.92</v>
@@ -2052,7 +2052,7 @@
         <v>-10.47</v>
       </c>
       <c r="D95" t="n">
-        <v>-8.330000000000002</v>
+        <v>-7.836000000000001</v>
       </c>
       <c r="E95" t="n">
         <v>16.44</v>
@@ -2066,7 +2066,7 @@
         <v>5.8</v>
       </c>
       <c r="C96" t="n">
-        <v>-12.45</v>
+        <v>-12.665</v>
       </c>
       <c r="D96" t="n">
         <v>-8.529999999999999</v>
@@ -2100,7 +2100,7 @@
         <v>4.73</v>
       </c>
       <c r="C98" t="n">
-        <v>-13.484</v>
+        <v>-13.446</v>
       </c>
       <c r="D98" t="n">
         <v>-9.33</v>
@@ -2145,16 +2145,16 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>-20.882</v>
+        <v>-20.846</v>
       </c>
       <c r="B101" t="n">
         <v>7.61</v>
       </c>
       <c r="C101" t="n">
-        <v>-12.346</v>
+        <v>-12.585</v>
       </c>
       <c r="D101" t="n">
-        <v>-7.822</v>
+        <v>-7.816</v>
       </c>
       <c r="E101" t="n">
         <v>16.32</v>
@@ -2162,13 +2162,13 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>-19.968</v>
+        <v>-19.812</v>
       </c>
       <c r="B102" t="n">
         <v>9.01</v>
       </c>
       <c r="C102" t="n">
-        <v>-13.504</v>
+        <v>-12.567</v>
       </c>
       <c r="D102" t="n">
         <v>-8.630000000000001</v>
